--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,45 +43,54 @@
     <t>evil</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
@@ -106,64 +115,64 @@
     <t>best</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
+    <t>right</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>…</t>
@@ -535,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -646,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C4">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K4">
         <v>0.92</v>
@@ -717,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <v>0.8666666666666667</v>
@@ -746,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8939393939393939</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.7719298245614035</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,16 +826,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.7241379310344828</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.7066666666666667</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="L8">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,31 +973,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.631578947368421</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>15</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>12</v>
-      </c>
-      <c r="M10">
-        <v>12</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,28 +1076,28 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.5454545454545454</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>18</v>
-      </c>
-      <c r="M12">
-        <v>18</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6285714285714286</v>
+        <v>0.65</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.3541666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1146,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6159420289855072</v>
+        <v>0.65</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.6159420289855072</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1214,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>53</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15">
+        <v>0.2926829268292683</v>
+      </c>
+      <c r="L15">
         <v>12</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
-        <v>0.3220338983050847</v>
-      </c>
-      <c r="L15">
-        <v>19</v>
-      </c>
       <c r="M15">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1238,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5319148936170213</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1264,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.2540983606557377</v>
+        <v>0.2531876138433515</v>
       </c>
       <c r="L16">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M16">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1288,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1296,38 +1305,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17">
+        <v>0.2372881355932203</v>
+      </c>
+      <c r="L17">
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>14</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1346,13 +1355,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4358974358974359</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1364,31 +1373,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.2</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1396,38 +1405,38 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1666666666666667</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19">
+        <v>0.2</v>
+      </c>
+      <c r="L19">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="M19">
         <v>13</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>65</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.1643835616438356</v>
-      </c>
-      <c r="L19">
-        <v>12</v>
-      </c>
-      <c r="M19">
-        <v>12</v>
-      </c>
       <c r="N19">
         <v>1</v>
       </c>
@@ -1438,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1446,141 +1455,213 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.05723905723905724</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20">
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>25</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <v>0.06481481481481481</v>
+      </c>
+      <c r="L21">
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>35</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>65</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22">
+        <v>0.05421686746987952</v>
+      </c>
+      <c r="L22">
+        <v>36</v>
+      </c>
+      <c r="M22">
+        <v>36</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.06418918918918919</v>
+      </c>
+      <c r="C23">
         <v>19</v>
       </c>
-      <c r="E20">
-        <v>0.11</v>
-      </c>
-      <c r="F20">
-        <v>0.89</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>280</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.1263157894736842</v>
-      </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.05421686746987952</v>
-      </c>
-      <c r="L21">
-        <v>36</v>
-      </c>
-      <c r="M21">
-        <v>36</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0.14</v>
+      </c>
+      <c r="F23">
+        <v>0.86</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>277</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
         <v>0.0530035335689046</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>15</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>15</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.03713188220230474</v>
-      </c>
-      <c r="L23">
-        <v>29</v>
-      </c>
-      <c r="M23">
-        <v>29</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1592,21 +1673,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>520</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.0275974025974026</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1618,21 +1699,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>599</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.02188940092165899</v>
+        <v>0.02707373271889401</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1644,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1698</v>
+        <v>1689</v>
       </c>
     </row>
   </sheetData>
